--- a/Racecard_20251001_Terry.xlsx
+++ b/Racecard_20251001_Terry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\OneDrive\文件\GitHub\download-racing-result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9067a40f65c3c728/文件/GitHub/download-racing-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A07AC-9ED5-4FAF-BAA5-CA313DF3C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{928A07AC-9ED5-4FAF-BAA5-CA313DF3C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED06FB0-0AD7-4CBA-AD87-FD91594C870D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race_1" sheetId="1" r:id="rId1"/>
@@ -1269,17 +1269,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1584,12 +1584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="27.140625" bestFit="1" customWidth="1"/>
@@ -3743,34 +3745,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0463FEE8-7E66-4158-9A92-84DCED6C058D}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="13" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str" cm="1">
+      <c r="B2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3778,7 +3784,7 @@
 )</f>
         <v>熊噹噹</v>
       </c>
-      <c r="C2" s="4" t="str" cm="1">
+      <c r="C2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3786,15 +3792,15 @@
 )</f>
         <v>志在福星</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f ca="1">SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 1)-SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 2)</f>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f ca="1">SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 2)-SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 3)</f>
         <v>-0.37999999999999545</v>
       </c>
-      <c r="F2" s="4" t="str" cm="1">
+      <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A2 &amp; "!v$2:v$15"),
@@ -3802,7 +3808,7 @@
 )</f>
         <v>鐵甲驌龍</v>
       </c>
-      <c r="G2" s="4" t="str" cm="1">
+      <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A2 &amp; "!v$2:v$15"),
@@ -3810,7 +3816,7 @@
 )</f>
         <v>龍又生</v>
       </c>
-      <c r="H2" s="4" t="str" cm="1">
+      <c r="H2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A2 &amp; "!w$2:w$15"),
@@ -3818,7 +3824,7 @@
 )</f>
         <v>鐵甲驌龍</v>
       </c>
-      <c r="I2" s="4" t="str" cm="1">
+      <c r="I2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A2 &amp; "!w$2:w$15"),
@@ -3830,7 +3836,7 @@
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="str" cm="1">
+      <c r="M2" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3838,7 +3844,7 @@
 )</f>
         <v>熊噹噹</v>
       </c>
-      <c r="N2" s="7" t="str" cm="1">
+      <c r="N2" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3846,7 +3852,7 @@
 )</f>
         <v>志在福星</v>
       </c>
-      <c r="O2" s="7" t="str" cm="1">
+      <c r="O2" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3854,7 +3860,7 @@
 )</f>
         <v>添喜運</v>
       </c>
-      <c r="P2" s="7" t="str" cm="1">
+      <c r="P2" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A2 &amp; "!t$2:t$15"),
@@ -3862,13 +3868,13 @@
 )</f>
         <v>荃程路通</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="str" cm="1">
+      <c r="B3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3876,7 +3882,7 @@
 )</f>
         <v>錶之極光</v>
       </c>
-      <c r="C3" s="4" t="str" cm="1">
+      <c r="C3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3884,15 +3890,15 @@
 )</f>
         <v>海綠寶</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D11" ca="1" si="0">SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 1)-SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 2)</f>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E11" ca="1" si="1">SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 2)-SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 3)</f>
         <v>-3.9999999999992042E-2</v>
       </c>
-      <c r="F3" s="4" t="str" cm="1">
+      <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A3 &amp; "!v$2:v$15"),
@@ -3900,7 +3906,7 @@
 )</f>
         <v>錶之極光</v>
       </c>
-      <c r="G3" s="4" t="str" cm="1">
+      <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A3 &amp; "!v$2:v$15"),
@@ -3908,7 +3914,7 @@
 )</f>
         <v>馬鳳凰</v>
       </c>
-      <c r="H3" s="4" t="str" cm="1">
+      <c r="H3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A3 &amp; "!w$2:w$15"),
@@ -3916,7 +3922,7 @@
 )</f>
         <v>枕頭之星</v>
       </c>
-      <c r="I3" s="4" t="str" cm="1">
+      <c r="I3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A3 &amp; "!w$2:w$15"),
@@ -3928,7 +3934,7 @@
         <f t="shared" ref="L3:L12" si="2">A3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="7" t="str" cm="1">
+      <c r="M3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3936,7 +3942,7 @@
 )</f>
         <v>錶之極光</v>
       </c>
-      <c r="N3" s="7" t="str" cm="1">
+      <c r="N3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3944,7 +3950,7 @@
 )</f>
         <v>海綠寶</v>
       </c>
-      <c r="O3" s="7" t="str" cm="1">
+      <c r="O3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3952,7 +3958,7 @@
 )</f>
         <v>金風萬里</v>
       </c>
-      <c r="P3" s="7" t="str" cm="1">
+      <c r="P3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A3 &amp; "!t$2:t$15"),
@@ -3960,13 +3966,13 @@
 )</f>
         <v>帥炸</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str" cm="1">
+      <c r="B4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -3974,7 +3980,7 @@
 )</f>
         <v>讓愛高飛</v>
       </c>
-      <c r="C4" s="4" t="str" cm="1">
+      <c r="C4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -3982,15 +3988,15 @@
 )</f>
         <v>陽光寶貝</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-0.67000000000000171</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F4" s="4" t="str" cm="1">
+      <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A4 &amp; "!v$2:v$15"),
@@ -3998,7 +4004,7 @@
 )</f>
         <v>焦點</v>
       </c>
-      <c r="G4" s="4" t="str" cm="1">
+      <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A4 &amp; "!v$2:v$15"),
@@ -4006,7 +4012,7 @@
 )</f>
         <v>讓愛高飛</v>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
+      <c r="H4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A4 &amp; "!w$2:w$15"),
@@ -4014,7 +4020,7 @@
 )</f>
         <v>讓愛高飛</v>
       </c>
-      <c r="I4" s="4" t="str" cm="1">
+      <c r="I4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A4 &amp; "!w$2:w$15"),
@@ -4026,7 +4032,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M4" s="7" t="str" cm="1">
+      <c r="M4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -4034,7 +4040,7 @@
 )</f>
         <v>讓愛高飛</v>
       </c>
-      <c r="N4" s="7" t="str" cm="1">
+      <c r="N4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -4042,7 +4048,7 @@
 )</f>
         <v>陽光寶貝</v>
       </c>
-      <c r="O4" s="7" t="str" cm="1">
+      <c r="O4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -4050,7 +4056,7 @@
 )</f>
         <v>魅力星</v>
       </c>
-      <c r="P4" s="7" t="str" cm="1">
+      <c r="P4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A4 &amp; "!t$2:t$15"),
@@ -4058,13 +4064,13 @@
 )</f>
         <v>快樂奇兵</v>
       </c>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="str" cm="1">
+      <c r="B5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4072,7 +4078,7 @@
 )</f>
         <v>奇異歡星</v>
       </c>
-      <c r="C5" s="4" t="str" cm="1">
+      <c r="C5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4080,15 +4086,15 @@
 )</f>
         <v>勁者</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="F5" s="4" t="str" cm="1">
+      <c r="F5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A5 &amp; "!v$2:v$15"),
@@ -4096,7 +4102,7 @@
 )</f>
         <v>奇異歡星</v>
       </c>
-      <c r="G5" s="4" t="str" cm="1">
+      <c r="G5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A5 &amp; "!v$2:v$15"),
@@ -4104,7 +4110,7 @@
 )</f>
         <v>舞林寶典</v>
       </c>
-      <c r="H5" s="4" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A5 &amp; "!w$2:w$15"),
@@ -4112,7 +4118,7 @@
 )</f>
         <v>舞林寶典</v>
       </c>
-      <c r="I5" s="4" t="str" cm="1">
+      <c r="I5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A5 &amp; "!w$2:w$15"),
@@ -4124,7 +4130,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M5" s="7" t="str" cm="1">
+      <c r="M5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4132,7 +4138,7 @@
 )</f>
         <v>奇異歡星</v>
       </c>
-      <c r="N5" s="7" t="str" cm="1">
+      <c r="N5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4140,7 +4146,7 @@
 )</f>
         <v>勁者</v>
       </c>
-      <c r="O5" s="7" t="str" cm="1">
+      <c r="O5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4148,7 +4154,7 @@
 )</f>
         <v>新力驕</v>
       </c>
-      <c r="P5" s="7" t="str" cm="1">
+      <c r="P5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A5 &amp; "!t$2:t$15"),
@@ -4156,13 +4162,13 @@
 )</f>
         <v>舞林寶典</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="str" cm="1">
+      <c r="B6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4170,7 +4176,7 @@
 )</f>
         <v>爆出美麗</v>
       </c>
-      <c r="C6" s="4" t="str" cm="1">
+      <c r="C6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4178,15 +4184,15 @@
 )</f>
         <v>雙贏</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-2.0000000000010232E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-0.17999999999999261</v>
       </c>
-      <c r="F6" s="4" t="str" cm="1">
+      <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A6 &amp; "!v$2:v$15"),
@@ -4194,7 +4200,7 @@
 )</f>
         <v>雙贏</v>
       </c>
-      <c r="G6" s="4" t="str" cm="1">
+      <c r="G6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A6 &amp; "!v$2:v$15"),
@@ -4202,7 +4208,7 @@
 )</f>
         <v>東方飛影</v>
       </c>
-      <c r="H6" s="4" t="str" cm="1">
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A6 &amp; "!w$2:w$15"),
@@ -4210,7 +4216,7 @@
 )</f>
         <v>雙贏</v>
       </c>
-      <c r="I6" s="4" t="str" cm="1">
+      <c r="I6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A6 &amp; "!w$2:w$15"),
@@ -4222,7 +4228,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M6" s="7" t="str" cm="1">
+      <c r="M6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4230,7 +4236,7 @@
 )</f>
         <v>爆出美麗</v>
       </c>
-      <c r="N6" s="7" t="str" cm="1">
+      <c r="N6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4238,7 +4244,7 @@
 )</f>
         <v>雙贏</v>
       </c>
-      <c r="O6" s="7" t="str" cm="1">
+      <c r="O6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4246,7 +4252,7 @@
 )</f>
         <v>年年友福</v>
       </c>
-      <c r="P6" s="7" t="str" cm="1">
+      <c r="P6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A6 &amp; "!t$2:t$15"),
@@ -4254,13 +4260,13 @@
 )</f>
         <v>風起雲湧</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="str" cm="1">
+      <c r="B7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4268,7 +4274,7 @@
 )</f>
         <v>後無來者</v>
       </c>
-      <c r="C7" s="4" t="str" cm="1">
+      <c r="C7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4276,15 +4282,15 @@
 )</f>
         <v>旋風傳奇</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-0.26000000000000512</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-3.9999999999992042E-2</v>
       </c>
-      <c r="F7" s="4" t="str" cm="1">
+      <c r="F7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A7 &amp; "!v$2:v$15"),
@@ -4292,7 +4298,7 @@
 )</f>
         <v>凱旋王者</v>
       </c>
-      <c r="G7" s="4" t="str" cm="1">
+      <c r="G7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A7 &amp; "!v$2:v$15"),
@@ -4300,7 +4306,7 @@
 )</f>
         <v>白鷺金剛</v>
       </c>
-      <c r="H7" s="4" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A7 &amp; "!w$2:w$15"),
@@ -4308,7 +4314,7 @@
 )</f>
         <v>白鷺金剛</v>
       </c>
-      <c r="I7" s="4" t="str" cm="1">
+      <c r="I7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A7 &amp; "!w$2:w$15"),
@@ -4320,7 +4326,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M7" s="7" t="str" cm="1">
+      <c r="M7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4328,7 +4334,7 @@
 )</f>
         <v>後無來者</v>
       </c>
-      <c r="N7" s="7" t="str" cm="1">
+      <c r="N7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4336,7 +4342,7 @@
 )</f>
         <v>旋風傳奇</v>
       </c>
-      <c r="O7" s="7" t="str" cm="1">
+      <c r="O7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4344,7 +4350,7 @@
 )</f>
         <v>精算激流</v>
       </c>
-      <c r="P7" s="7" t="str" cm="1">
+      <c r="P7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A7 &amp; "!t$2:t$15"),
@@ -4352,13 +4358,13 @@
 )</f>
         <v>白鷺金剛</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="str" cm="1">
+      <c r="B8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4366,7 +4372,7 @@
 )</f>
         <v>氣勢</v>
       </c>
-      <c r="C8" s="4" t="str" cm="1">
+      <c r="C8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4374,15 +4380,15 @@
 )</f>
         <v>魔術控制</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-0.24000000000000199</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-0.10000000000000142</v>
       </c>
-      <c r="F8" s="4" t="str" cm="1">
+      <c r="F8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A8 &amp; "!v$2:v$15"),
@@ -4390,7 +4396,7 @@
 )</f>
         <v>舉步生風</v>
       </c>
-      <c r="G8" s="4" t="str" cm="1">
+      <c r="G8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A8 &amp; "!v$2:v$15"),
@@ -4398,7 +4404,7 @@
 )</f>
         <v>氣勢</v>
       </c>
-      <c r="H8" s="4" t="str" cm="1">
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A8 &amp; "!w$2:w$15"),
@@ -4406,7 +4412,7 @@
 )</f>
         <v>舉步生風</v>
       </c>
-      <c r="I8" s="4" t="str" cm="1">
+      <c r="I8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A8 &amp; "!w$2:w$15"),
@@ -4418,7 +4424,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M8" s="7" t="str" cm="1">
+      <c r="M8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4426,7 +4432,7 @@
 )</f>
         <v>氣勢</v>
       </c>
-      <c r="N8" s="7" t="str" cm="1">
+      <c r="N8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4434,7 +4440,7 @@
 )</f>
         <v>魔術控制</v>
       </c>
-      <c r="O8" s="7" t="str" cm="1">
+      <c r="O8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4442,7 +4448,7 @@
 )</f>
         <v>美麗第一</v>
       </c>
-      <c r="P8" s="7" t="str" cm="1">
+      <c r="P8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A8 &amp; "!t$2:t$15"),
@@ -4450,13 +4456,13 @@
 )</f>
         <v>精算暴雪</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="str" cm="1">
+      <c r="B9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4464,7 +4470,7 @@
 )</f>
         <v>康樂高球</v>
       </c>
-      <c r="C9" s="4" t="str" cm="1">
+      <c r="C9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4472,15 +4478,15 @@
 )</f>
         <v>米奇</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-3.0000000000001137E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="F9" s="4" t="str" cm="1">
+      <c r="F9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A9 &amp; "!v$2:v$15"),
@@ -4488,7 +4494,7 @@
 )</f>
         <v>康樂高球</v>
       </c>
-      <c r="G9" s="4" t="str" cm="1">
+      <c r="G9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A9 &amp; "!v$2:v$15"),
@@ -4496,7 +4502,7 @@
 )</f>
         <v>飛輪步</v>
       </c>
-      <c r="H9" s="4" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A9 &amp; "!w$2:w$15"),
@@ -4504,7 +4510,7 @@
 )</f>
         <v>康樂高球</v>
       </c>
-      <c r="I9" s="4" t="str" cm="1">
+      <c r="I9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A9 &amp; "!w$2:w$15"),
@@ -4516,7 +4522,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M9" s="7" t="str" cm="1">
+      <c r="M9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4524,7 +4530,7 @@
 )</f>
         <v>康樂高球</v>
       </c>
-      <c r="N9" s="7" t="str" cm="1">
+      <c r="N9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4532,7 +4538,7 @@
 )</f>
         <v>米奇</v>
       </c>
-      <c r="O9" s="7" t="str" cm="1">
+      <c r="O9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4540,7 +4546,7 @@
 )</f>
         <v>大浪圖田</v>
       </c>
-      <c r="P9" s="7" t="str" cm="1">
+      <c r="P9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A9 &amp; "!t$2:t$15"),
@@ -4548,13 +4554,13 @@
 )</f>
         <v>健康愉快</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="str" cm="1">
+      <c r="B10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4562,7 +4568,7 @@
 )</f>
         <v>幸運星球</v>
       </c>
-      <c r="C10" s="4" t="str" cm="1">
+      <c r="C10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4570,15 +4576,15 @@
 )</f>
         <v>哈羅威</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-4.0000000000006253E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-0.29000000000000625</v>
       </c>
-      <c r="F10" s="4" t="str" cm="1">
+      <c r="F10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A10 &amp; "!v$2:v$15"),
@@ -4586,7 +4592,7 @@
 )</f>
         <v>鈁糖武士</v>
       </c>
-      <c r="G10" s="4" t="str" cm="1">
+      <c r="G10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A10 &amp; "!v$2:v$15"),
@@ -4594,7 +4600,7 @@
 )</f>
         <v>肯佩斯</v>
       </c>
-      <c r="H10" s="4" t="str" cm="1">
+      <c r="H10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A10 &amp; "!w$2:w$15"),
@@ -4602,7 +4608,7 @@
 )</f>
         <v>肯佩斯</v>
       </c>
-      <c r="I10" s="4" t="str" cm="1">
+      <c r="I10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A10 &amp; "!w$2:w$15"),
@@ -4614,7 +4620,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M10" s="7" t="str" cm="1">
+      <c r="M10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4622,7 +4628,7 @@
 )</f>
         <v>幸運星球</v>
       </c>
-      <c r="N10" s="7" t="str" cm="1">
+      <c r="N10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4630,7 +4636,7 @@
 )</f>
         <v>哈羅威</v>
       </c>
-      <c r="O10" s="7" t="str" cm="1">
+      <c r="O10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4638,7 +4644,7 @@
 )</f>
         <v>天星</v>
       </c>
-      <c r="P10" s="7" t="str" cm="1">
+      <c r="P10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A10 &amp; "!t$2:t$15"),
@@ -4646,13 +4652,13 @@
 )</f>
         <v>顯勝高昇</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="str" cm="1">
+      <c r="B11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4660,7 +4666,7 @@
 )</f>
         <v>勁沙塵</v>
       </c>
-      <c r="C11" s="4" t="str" cm="1">
+      <c r="C11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4668,15 +4674,15 @@
 )</f>
         <v>喜尊龍</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-4.0000000000006253E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>-0.19999999999998863</v>
       </c>
-      <c r="F11" s="4" t="str" cm="1">
+      <c r="F11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!v$2:v$15"), 1),
     INDIRECT("Race_" &amp; $A11 &amp; "!v$2:v$15"),
@@ -4684,7 +4690,7 @@
 )</f>
         <v>一支箭</v>
       </c>
-      <c r="G11" s="4" t="str" cm="1">
+      <c r="G11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!v$2:v$15"), 2),
     INDIRECT("Race_" &amp; $A11 &amp; "!v$2:v$15"),
@@ -4692,7 +4698,7 @@
 )</f>
         <v>幸運多彩</v>
       </c>
-      <c r="H11" s="4" t="str" cm="1">
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!w$2:w$15"), 1),
     INDIRECT("Race_" &amp; $A11 &amp; "!w$2:w$15"),
@@ -4700,7 +4706,7 @@
 )</f>
         <v>勁沙塵</v>
       </c>
-      <c r="I11" s="4" t="str" cm="1">
+      <c r="I11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!w$2:w$15"), 2),
     INDIRECT("Race_" &amp; $A11 &amp; "!w$2:w$15"),
@@ -4712,7 +4718,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M11" s="7" t="str" cm="1">
+      <c r="M11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4720,7 +4726,7 @@
 )</f>
         <v>勁沙塵</v>
       </c>
-      <c r="N11" s="7" t="str" cm="1">
+      <c r="N11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4728,7 +4734,7 @@
 )</f>
         <v>喜尊龍</v>
       </c>
-      <c r="O11" s="7" t="str" cm="1">
+      <c r="O11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4736,7 +4742,7 @@
 )</f>
         <v>亞機拉</v>
       </c>
-      <c r="P11" s="7" t="str" cm="1">
+      <c r="P11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A11 &amp; "!t$2:t$15"),
@@ -4744,14 +4750,14 @@
 )</f>
         <v>巴閉仔</v>
       </c>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="7" t="e" cm="1">
+      <c r="M12" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"), 1),
     INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"),
@@ -4759,7 +4765,7 @@
 )</f>
         <v>#REF!</v>
       </c>
-      <c r="N12" s="7" t="e" cm="1">
+      <c r="N12" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"), 2),
     INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"),
@@ -4767,7 +4773,7 @@
 )</f>
         <v>#REF!</v>
       </c>
-      <c r="O12" s="7" t="e" cm="1">
+      <c r="O12" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"), 3),
     INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"),
@@ -4775,7 +4781,7 @@
 )</f>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="7" t="e" cm="1">
+      <c r="P12" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">_xlfn.XLOOKUP(
     SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"), 4),
     INDIRECT("Race_" &amp; $A12 &amp; "!t$2:t$15"),
@@ -4783,7 +4789,7 @@
 )</f>
         <v>#REF!</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4800,7 +4806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5756,7 +5764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
